--- a/config_12.01/fish3d_config.xlsx
+++ b/config_12.01/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="419">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="420">
   <si>
     <t>line|行号</t>
   </si>
@@ -2471,11 +2471,15 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>by_iocn_hfy_1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费鱼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_imgf_hfy</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3086,7 +3090,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
+      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8596,16 +8600,16 @@
         <v>415</v>
       </c>
       <c r="D60" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="E60" s="53" t="s">
         <v>417</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>418</v>
       </c>
       <c r="F60" s="53" t="s">
         <v>416</v>
       </c>
       <c r="G60" s="53" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="H60" s="53" t="s">
         <v>218</v>

--- a/config_12.01/fish3d_config.xlsx
+++ b/config_12.01/fish3d_config.xlsx
@@ -2467,10 +2467,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>by_imgf_zp55</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>话费鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -2481,6 +2477,9 @@
   <si>
     <t>3dby_imgf_hfy</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy</t>
   </si>
 </sst>
 </file>
@@ -3090,7 +3089,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E64" sqref="E64"/>
+      <selection pane="bottomLeft" activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8600,13 +8599,13 @@
         <v>415</v>
       </c>
       <c r="D60" s="53" t="s">
+        <v>417</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="F60" s="53" t="s">
         <v>418</v>
-      </c>
-      <c r="E60" s="53" t="s">
-        <v>417</v>
-      </c>
-      <c r="F60" s="53" t="s">
-        <v>416</v>
       </c>
       <c r="G60" s="53" t="s">
         <v>419</v>

--- a/config_12.01/fish3d_config.xlsx
+++ b/config_12.01/fish3d_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_11.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="417">
   <si>
     <t>line|行号</t>
   </si>
@@ -2460,6 +2460,14 @@
   </si>
   <si>
     <t>by_iocn_hjboss</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish3D089</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_imgf_zp55</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3070,7 +3078,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
       <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D59" sqref="D59"/>
+      <selection pane="topRight" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8569,6 +8577,89 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="60" spans="1:36" s="54" customFormat="1">
+      <c r="A60" s="12">
+        <v>59</v>
+      </c>
+      <c r="B60" s="12">
+        <v>59</v>
+      </c>
+      <c r="C60" s="53" t="s">
+        <v>415</v>
+      </c>
+      <c r="D60" s="53" t="s">
+        <v>414</v>
+      </c>
+      <c r="E60" s="53" t="s">
+        <v>413</v>
+      </c>
+      <c r="F60" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" s="53" t="s">
+        <v>416</v>
+      </c>
+      <c r="H60" s="53" t="s">
+        <v>218</v>
+      </c>
+      <c r="I60" s="53">
+        <v>2.64</v>
+      </c>
+      <c r="J60" s="53">
+        <v>2.38</v>
+      </c>
+      <c r="K60" s="52">
+        <v>1</v>
+      </c>
+      <c r="L60" s="52">
+        <v>30</v>
+      </c>
+      <c r="M60" s="53">
+        <v>1</v>
+      </c>
+      <c r="N60" s="52">
+        <v>0</v>
+      </c>
+      <c r="O60" s="52">
+        <v>4</v>
+      </c>
+      <c r="Q60" s="53">
+        <v>0.64</v>
+      </c>
+      <c r="R60" s="55">
+        <v>0.73</v>
+      </c>
+      <c r="S60" s="55">
+        <v>0.74</v>
+      </c>
+      <c r="T60" s="53" t="s">
+        <v>341</v>
+      </c>
+      <c r="U60" s="55">
+        <v>1</v>
+      </c>
+      <c r="V60" s="55">
+        <v>0.8</v>
+      </c>
+      <c r="W60" s="55">
+        <v>0.1</v>
+      </c>
+      <c r="Y60" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="Z60" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="AA60" s="57">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="57">
+        <v>1000</v>
+      </c>
+      <c r="AD60" s="57">
+        <v>1.5</v>
+      </c>
+    </row>
     <row r="61" spans="1:36">
       <c r="E61" s="13"/>
     </row>

--- a/config_12.01/fish3d_config.xlsx
+++ b/config_12.01/fish3d_config.xlsx
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="417">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="419">
   <si>
     <t>line|行号</t>
   </si>
@@ -2468,6 +2468,14 @@
   </si>
   <si>
     <t>by_imgf_zp55</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>by_iocn_hfy_1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费鱼</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -3076,9 +3084,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <pane xSplit="5" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8588,10 +8596,10 @@
         <v>415</v>
       </c>
       <c r="D60" s="53" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="E60" s="53" t="s">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="F60" s="53" t="s">
         <v>416</v>
